--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H2">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I2">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J2">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N2">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O2">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P2">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q2">
-        <v>3.075812929178</v>
+        <v>0.1006704195075</v>
       </c>
       <c r="R2">
-        <v>12.303251716712</v>
+        <v>0.40268167803</v>
       </c>
       <c r="S2">
-        <v>0.06628672086969711</v>
+        <v>0.0005976645565350647</v>
       </c>
       <c r="T2">
-        <v>0.03817373481980188</v>
+        <v>0.0002803962913843373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H3">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I3">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J3">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P3">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q3">
-        <v>0.9805297857098333</v>
+        <v>0.04957745091483333</v>
       </c>
       <c r="R3">
-        <v>5.883178714259</v>
+        <v>0.297464705489</v>
       </c>
       <c r="S3">
-        <v>0.02113135802024918</v>
+        <v>0.0002943335823980082</v>
       </c>
       <c r="T3">
-        <v>0.01825394694888394</v>
+        <v>0.0002071313516048172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H4">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I4">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J4">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N4">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O4">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P4">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q4">
-        <v>7.302446357312332</v>
+        <v>0.4568023766245</v>
       </c>
       <c r="R4">
-        <v>43.814678143874</v>
+        <v>2.740814259747</v>
       </c>
       <c r="S4">
-        <v>0.1573747280795978</v>
+        <v>0.002711964360385979</v>
       </c>
       <c r="T4">
-        <v>0.1359453535691948</v>
+        <v>0.00190849049195904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H5">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I5">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J5">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N5">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O5">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P5">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q5">
-        <v>0.7837178405815001</v>
+        <v>0.05775604842575</v>
       </c>
       <c r="R5">
-        <v>3.134871362326</v>
+        <v>0.231024193703</v>
       </c>
       <c r="S5">
-        <v>0.01688987169746736</v>
+        <v>0.0003428886383752671</v>
       </c>
       <c r="T5">
-        <v>0.009726676397026941</v>
+        <v>0.0001608673318619477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H6">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I6">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J6">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N6">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O6">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P6">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q6">
-        <v>2.0414879581195</v>
+        <v>0.2769206282596667</v>
       </c>
       <c r="R6">
-        <v>12.248927748717</v>
+        <v>1.661523769558</v>
       </c>
       <c r="S6">
-        <v>0.04399602497115452</v>
+        <v>0.001644034516732047</v>
       </c>
       <c r="T6">
-        <v>0.03800518192042621</v>
+        <v>0.001156956296870003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H7">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I7">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J7">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N7">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O7">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P7">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q7">
-        <v>12.04835526799667</v>
+        <v>0.1861893732083333</v>
       </c>
       <c r="R7">
-        <v>72.29013160797999</v>
+        <v>1.11713623925</v>
       </c>
       <c r="S7">
-        <v>0.259653620352677</v>
+        <v>0.001105377227138801</v>
       </c>
       <c r="T7">
-        <v>0.2242971514874521</v>
+        <v>0.0007778870396815252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H8">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I8">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J8">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N8">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O8">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P8">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q8">
-        <v>1.348974209434667</v>
+        <v>0.1759948576875</v>
       </c>
       <c r="R8">
-        <v>8.093845256607999</v>
+        <v>0.7039794307499999</v>
       </c>
       <c r="S8">
-        <v>0.02907168899413952</v>
+        <v>0.001044853980810273</v>
       </c>
       <c r="T8">
-        <v>0.02511306032035219</v>
+        <v>0.0004901966798162865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H9">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I9">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J9">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.744669</v>
       </c>
       <c r="O9">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P9">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q9">
-        <v>0.4300357085951111</v>
+        <v>0.0866726935375</v>
       </c>
       <c r="R9">
-        <v>3.870321377356</v>
+        <v>0.520036161225</v>
       </c>
       <c r="S9">
-        <v>0.009267682279775244</v>
+        <v>0.000514562243807182</v>
       </c>
       <c r="T9">
-        <v>0.0120085832045451</v>
+        <v>0.0003621128522822286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H10">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I10">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J10">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N10">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O10">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P10">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q10">
-        <v>3.202669352335111</v>
+        <v>0.7985947576125</v>
       </c>
       <c r="R10">
-        <v>28.824024171016</v>
+        <v>4.791568545675</v>
       </c>
       <c r="S10">
-        <v>0.06902059854885456</v>
+        <v>0.004741132340509854</v>
       </c>
       <c r="T10">
-        <v>0.08943332059518176</v>
+        <v>0.003336476734412085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H11">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I11">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J11">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N11">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O11">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P11">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q11">
-        <v>0.3437189382973334</v>
+        <v>0.10097074764375</v>
       </c>
       <c r="R11">
-        <v>2.062313629784</v>
+        <v>0.403882990575</v>
       </c>
       <c r="S11">
-        <v>0.007407473030758385</v>
+        <v>0.0005994475577706311</v>
       </c>
       <c r="T11">
-        <v>0.006398813535750108</v>
+        <v>0.0002812327922752132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H12">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I12">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J12">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N12">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O12">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P12">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q12">
-        <v>0.8953452852253333</v>
+        <v>0.484120427825</v>
       </c>
       <c r="R12">
-        <v>8.058107567027999</v>
+        <v>2.90472256695</v>
       </c>
       <c r="S12">
-        <v>0.01929555027249072</v>
+        <v>0.002874147363457031</v>
       </c>
       <c r="T12">
-        <v>0.02500217572524583</v>
+        <v>0.002022623525504664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H13">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I13">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J13">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N13">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O13">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P13">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q13">
-        <v>5.284105664702222</v>
+        <v>0.325501496875</v>
       </c>
       <c r="R13">
-        <v>47.55695098232</v>
+        <v>1.95300898125</v>
       </c>
       <c r="S13">
-        <v>0.1138775488975231</v>
+        <v>0.001932451545677757</v>
       </c>
       <c r="T13">
-        <v>0.1475566360372383</v>
+        <v>0.001359923992722622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H14">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I14">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J14">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N14">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O14">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P14">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q14">
-        <v>1.01592940748</v>
+        <v>14.554195047795</v>
       </c>
       <c r="R14">
-        <v>6.09557644488</v>
+        <v>87.32517028676999</v>
       </c>
       <c r="S14">
-        <v>0.02189425384688158</v>
+        <v>0.0864059827258114</v>
       </c>
       <c r="T14">
-        <v>0.0189129609097249</v>
+        <v>0.06080647625366217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H15">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I15">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J15">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.744669</v>
       </c>
       <c r="O15">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P15">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q15">
-        <v>0.3238652893233333</v>
+        <v>7.167546277416776</v>
       </c>
       <c r="R15">
-        <v>2.91478760391</v>
+        <v>64.50791649675099</v>
       </c>
       <c r="S15">
-        <v>0.006979607839315745</v>
+        <v>0.04255260272375946</v>
       </c>
       <c r="T15">
-        <v>0.009043814725546568</v>
+        <v>0.04491831026211215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H16">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I16">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J16">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N16">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O16">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P16">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q16">
-        <v>2.411970484473333</v>
+        <v>66.04115608353032</v>
       </c>
       <c r="R16">
-        <v>21.70773436026</v>
+        <v>594.370404751773</v>
       </c>
       <c r="S16">
-        <v>0.05198027901292416</v>
+        <v>0.3920760284582461</v>
       </c>
       <c r="T16">
-        <v>0.06735335617669738</v>
+        <v>0.4138734546263325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H17">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I17">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J17">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N17">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O17">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P17">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q17">
-        <v>0.25885904629</v>
+        <v>8.349948257796164</v>
       </c>
       <c r="R17">
-        <v>1.55315427774</v>
+        <v>50.09968954677699</v>
       </c>
       <c r="S17">
-        <v>0.005578660907250591</v>
+        <v>0.04957233859758267</v>
       </c>
       <c r="T17">
-        <v>0.004819026782338536</v>
+        <v>0.03488553841621856</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H18">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I18">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J18">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N18">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O18">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P18">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q18">
-        <v>0.67429577137</v>
+        <v>40.03516480974688</v>
       </c>
       <c r="R18">
-        <v>6.06866194233</v>
+        <v>360.316483287722</v>
       </c>
       <c r="S18">
-        <v>0.01453172107978796</v>
+        <v>0.2376825202366717</v>
       </c>
       <c r="T18">
-        <v>0.01882945232948875</v>
+        <v>0.2508964553162434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.743059666666666</v>
+      </c>
+      <c r="H19">
+        <v>11.229179</v>
+      </c>
+      <c r="I19">
+        <v>0.9680968505584552</v>
+      </c>
+      <c r="J19">
+        <v>0.9740720872985071</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="N19">
+        <v>21.57425</v>
+      </c>
+      <c r="O19">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="P19">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="Q19">
+        <v>26.91790167119444</v>
+      </c>
+      <c r="R19">
+        <v>242.26111504075</v>
+      </c>
+      <c r="S19">
+        <v>0.1598073778163838</v>
+      </c>
+      <c r="T19">
+        <v>0.1686918524239383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.156593</v>
+      </c>
+      <c r="I20">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J20">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.888315</v>
+      </c>
+      <c r="N20">
+        <v>7.77663</v>
+      </c>
+      <c r="O20">
+        <v>0.0892534488424039</v>
+      </c>
+      <c r="P20">
+        <v>0.06242502690155401</v>
+      </c>
+      <c r="Q20">
+        <v>0.202960970265</v>
+      </c>
+      <c r="R20">
+        <v>1.21776582159</v>
+      </c>
+      <c r="S20">
+        <v>0.001204947579247155</v>
+      </c>
+      <c r="T20">
+        <v>0.0008479576766912098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.156593</v>
+      </c>
+      <c r="I21">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J21">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.744669</v>
+      </c>
+      <c r="O21">
+        <v>0.04395490254845124</v>
+      </c>
+      <c r="P21">
+        <v>0.04611394869828234</v>
+      </c>
+      <c r="Q21">
+        <v>0.09995277252411111</v>
+      </c>
+      <c r="R21">
+        <v>0.8995749527170001</v>
+      </c>
+      <c r="S21">
+        <v>0.0005934039984865916</v>
+      </c>
+      <c r="T21">
+        <v>0.0006263942322831374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.156593</v>
+      </c>
+      <c r="I22">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J22">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.643629</v>
+      </c>
+      <c r="N22">
+        <v>52.93088700000001</v>
+      </c>
+      <c r="O22">
+        <v>0.4049966986588931</v>
+      </c>
+      <c r="P22">
+        <v>0.424889964534524</v>
+      </c>
+      <c r="Q22">
+        <v>0.9209562653323334</v>
+      </c>
+      <c r="R22">
+        <v>8.288606387991001</v>
+      </c>
+      <c r="S22">
+        <v>0.005467573499751153</v>
+      </c>
+      <c r="T22">
+        <v>0.005771542681820398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.156593</v>
+      </c>
+      <c r="I23">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J23">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.2307815</v>
+      </c>
+      <c r="N23">
+        <v>4.461563</v>
+      </c>
+      <c r="O23">
+        <v>0.05120597032103393</v>
+      </c>
+      <c r="P23">
+        <v>0.03581412389402325</v>
+      </c>
+      <c r="Q23">
+        <v>0.1164415891431667</v>
+      </c>
+      <c r="R23">
+        <v>0.6986495348590001</v>
+      </c>
+      <c r="S23">
+        <v>0.0006912955273053591</v>
+      </c>
+      <c r="T23">
+        <v>0.0004864853536675223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.16913</v>
-      </c>
-      <c r="H19">
-        <v>0.50739</v>
-      </c>
-      <c r="I19">
-        <v>0.1867271339856154</v>
-      </c>
-      <c r="J19">
-        <v>0.2300853654389008</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>23.52939333333333</v>
-      </c>
-      <c r="N19">
-        <v>70.58817999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.4592937805496555</v>
-      </c>
-      <c r="P19">
-        <v>0.4829805420397951</v>
-      </c>
-      <c r="Q19">
-        <v>3.979526294466667</v>
-      </c>
-      <c r="R19">
-        <v>35.81573665019999</v>
-      </c>
-      <c r="S19">
-        <v>0.08576261129945535</v>
-      </c>
-      <c r="T19">
-        <v>0.1111267545151046</v>
+      <c r="G24">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.156593</v>
+      </c>
+      <c r="I24">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J24">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.69583933333333</v>
+      </c>
+      <c r="N24">
+        <v>32.087518</v>
+      </c>
+      <c r="O24">
+        <v>0.2455152292867831</v>
+      </c>
+      <c r="P24">
+        <v>0.2575748331030406</v>
+      </c>
+      <c r="Q24">
+        <v>0.5582978562415556</v>
+      </c>
+      <c r="R24">
+        <v>5.024680706174001</v>
+      </c>
+      <c r="S24">
+        <v>0.00331452716992232</v>
+      </c>
+      <c r="T24">
+        <v>0.003498797964422556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.156593</v>
+      </c>
+      <c r="I25">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J25">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="N25">
+        <v>21.57425</v>
+      </c>
+      <c r="O25">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="P25">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="Q25">
+        <v>0.3753751700277778</v>
+      </c>
+      <c r="R25">
+        <v>3.37837653025</v>
+      </c>
+      <c r="S25">
+        <v>0.002228543753234407</v>
+      </c>
+      <c r="T25">
+        <v>0.002352439412233234</v>
       </c>
     </row>
   </sheetData>
